--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.708183</v>
+        <v>19.872027</v>
       </c>
       <c r="H2">
-        <v>92.124549</v>
+        <v>59.61608099999999</v>
       </c>
       <c r="I2">
-        <v>0.3702499640981372</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="J2">
-        <v>0.3702499640981371</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.499519333333335</v>
+        <v>4.224096333333333</v>
       </c>
       <c r="N2">
-        <v>22.498558</v>
+        <v>12.672289</v>
       </c>
       <c r="O2">
-        <v>0.2063210495448665</v>
+        <v>0.1277189908446358</v>
       </c>
       <c r="P2">
-        <v>0.2063210495448665</v>
+        <v>0.1277189908446358</v>
       </c>
       <c r="Q2">
-        <v>230.2966121000381</v>
+        <v>83.94135638660099</v>
       </c>
       <c r="R2">
-        <v>2072.669508900342</v>
+        <v>755.4722074794089</v>
       </c>
       <c r="S2">
-        <v>0.0763903611866768</v>
+        <v>0.0352001817894118</v>
       </c>
       <c r="T2">
-        <v>0.07639036118667679</v>
+        <v>0.0352001817894118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.708183</v>
+        <v>19.872027</v>
       </c>
       <c r="H3">
-        <v>92.124549</v>
+        <v>59.61608099999999</v>
       </c>
       <c r="I3">
-        <v>0.3702499640981372</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="J3">
-        <v>0.3702499640981371</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>44.570442</v>
       </c>
       <c r="O3">
-        <v>0.4087293226578609</v>
+        <v>0.4492078640046304</v>
       </c>
       <c r="P3">
-        <v>0.4087293226578609</v>
+        <v>0.4492078640046304</v>
       </c>
       <c r="Q3">
-        <v>456.225763108962</v>
+        <v>295.235008941978</v>
       </c>
       <c r="R3">
-        <v>4106.031867980658</v>
+        <v>2657.115080477802</v>
       </c>
       <c r="S3">
-        <v>0.1513320170399289</v>
+        <v>0.1238045992191652</v>
       </c>
       <c r="T3">
-        <v>0.1513320170399289</v>
+        <v>0.1238045992191652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.708183</v>
+        <v>19.872027</v>
       </c>
       <c r="H4">
-        <v>92.124549</v>
+        <v>59.61608099999999</v>
       </c>
       <c r="I4">
-        <v>0.3702499640981372</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="J4">
-        <v>0.3702499640981371</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>41.977353</v>
       </c>
       <c r="O4">
-        <v>0.3849496277972726</v>
+        <v>0.4230731451507339</v>
       </c>
       <c r="P4">
-        <v>0.3849496277972725</v>
+        <v>0.4230731451507338</v>
       </c>
       <c r="Q4">
-        <v>429.6827459265331</v>
+        <v>278.058364068177</v>
       </c>
       <c r="R4">
-        <v>3867.144713338797</v>
+        <v>2502.525276613593</v>
       </c>
       <c r="S4">
-        <v>0.1425275858715314</v>
+        <v>0.1166017012899809</v>
       </c>
       <c r="T4">
-        <v>0.1425275858715314</v>
+        <v>0.1166017012899809</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>38.091872</v>
       </c>
       <c r="I5">
-        <v>0.1530918131325759</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="J5">
-        <v>0.1530918131325759</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.499519333333335</v>
+        <v>4.224096333333333</v>
       </c>
       <c r="N5">
-        <v>22.498558</v>
+        <v>12.672289</v>
       </c>
       <c r="O5">
-        <v>0.2063210495448665</v>
+        <v>0.1277189908446358</v>
       </c>
       <c r="P5">
-        <v>0.2063210495448665</v>
+        <v>0.1277189908446358</v>
       </c>
       <c r="Q5">
-        <v>95.22357683561958</v>
+        <v>53.63457894833422</v>
       </c>
       <c r="R5">
-        <v>857.0121915205762</v>
+        <v>482.711210535008</v>
       </c>
       <c r="S5">
-        <v>0.03158606356223965</v>
+        <v>0.02249126069019877</v>
       </c>
       <c r="T5">
-        <v>0.03158606356223964</v>
+        <v>0.02249126069019877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>38.091872</v>
       </c>
       <c r="I6">
-        <v>0.1530918131325759</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="J6">
-        <v>0.1530918131325759</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>44.570442</v>
       </c>
       <c r="O6">
-        <v>0.4087293226578609</v>
+        <v>0.4492078640046304</v>
       </c>
       <c r="P6">
-        <v>0.4087293226578609</v>
+        <v>0.4492078640046304</v>
       </c>
       <c r="Q6">
         <v>188.6412857386027</v>
@@ -818,10 +818,10 @@
         <v>1697.771571647424</v>
       </c>
       <c r="S6">
-        <v>0.06257311308614158</v>
+        <v>0.07910531634019585</v>
       </c>
       <c r="T6">
-        <v>0.06257311308614157</v>
+        <v>0.07910531634019587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>38.091872</v>
       </c>
       <c r="I7">
-        <v>0.1530918131325759</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="J7">
-        <v>0.1530918131325759</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>41.977353</v>
       </c>
       <c r="O7">
-        <v>0.3849496277972726</v>
+        <v>0.4230731451507339</v>
       </c>
       <c r="P7">
-        <v>0.3849496277972725</v>
+        <v>0.4230731451507338</v>
       </c>
       <c r="Q7">
         <v>177.6662174860907</v>
@@ -880,10 +880,10 @@
         <v>1598.995957374816</v>
       </c>
       <c r="S7">
-        <v>0.05893263648419472</v>
+        <v>0.0745030033175141</v>
       </c>
       <c r="T7">
-        <v>0.0589326364841947</v>
+        <v>0.0745030033175141</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>118.600751</v>
       </c>
       <c r="I8">
-        <v>0.476658222769287</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="J8">
-        <v>0.476658222769287</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.499519333333335</v>
+        <v>4.224096333333333</v>
       </c>
       <c r="N8">
-        <v>22.498558</v>
+        <v>12.672289</v>
       </c>
       <c r="O8">
-        <v>0.2063210495448665</v>
+        <v>0.1277189908446358</v>
       </c>
       <c r="P8">
-        <v>0.2063210495448665</v>
+        <v>0.1277189908446358</v>
       </c>
       <c r="Q8">
-        <v>296.4828750241176</v>
+        <v>166.9936658098932</v>
       </c>
       <c r="R8">
-        <v>2668.345875217058</v>
+        <v>1502.942992289039</v>
       </c>
       <c r="S8">
-        <v>0.09834462479595009</v>
+        <v>0.07002754836502527</v>
       </c>
       <c r="T8">
-        <v>0.09834462479595008</v>
+        <v>0.07002754836502527</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>118.600751</v>
       </c>
       <c r="I9">
-        <v>0.476658222769287</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="J9">
-        <v>0.476658222769287</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>44.570442</v>
       </c>
       <c r="O9">
-        <v>0.4087293226578609</v>
+        <v>0.4492078640046304</v>
       </c>
       <c r="P9">
-        <v>0.4087293226578609</v>
+        <v>0.4492078640046304</v>
       </c>
       <c r="Q9">
         <v>587.3430992891047</v>
@@ -1004,10 +1004,10 @@
         <v>5286.087893601942</v>
       </c>
       <c r="S9">
-        <v>0.1948241925317905</v>
+        <v>0.2462979484452693</v>
       </c>
       <c r="T9">
-        <v>0.1948241925317904</v>
+        <v>0.2462979484452693</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>118.600751</v>
       </c>
       <c r="I10">
-        <v>0.476658222769287</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="J10">
-        <v>0.476658222769287</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>41.977353</v>
       </c>
       <c r="O10">
-        <v>0.3849496277972726</v>
+        <v>0.4230731451507339</v>
       </c>
       <c r="P10">
-        <v>0.3849496277972725</v>
+        <v>0.4230731451507338</v>
       </c>
       <c r="Q10">
         <v>553.1717323102337</v>
       </c>
       <c r="R10">
-        <v>4978.545590792103</v>
+        <v>4978.545590792102</v>
       </c>
       <c r="S10">
-        <v>0.1834894054415465</v>
+        <v>0.2319684405432388</v>
       </c>
       <c r="T10">
-        <v>0.1834894054415464</v>
+        <v>0.2319684405432388</v>
       </c>
     </row>
   </sheetData>
